--- a/DateBase/orders/Fresh bloom Flowers_2025-11-12.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-12.xlsx
@@ -1069,6 +1069,9 @@
       <c r="G2" t="str">
         <v>060253720125382101015101510105201010510105620107101010520101055101030204030101410551010552010101010201015101010515105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
